--- a/excel/exact_solution.xlsx
+++ b/excel/exact_solution.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hamilton\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D22D83-6586-4C19-97E1-12CC10C2456C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6879E084-F280-42D6-8191-5570593678B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6795" yWindow="1710" windowWidth="18285" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -348,13 +349,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:CX102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:102" dyDescent="0.2">
       <c r="B2">
         <v>0</v>
       </c>
@@ -659,7 +660,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="3" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:102" dyDescent="0.2">
       <c r="B3">
         <v>0</v>
       </c>
@@ -964,7 +965,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="4" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:102" dyDescent="0.2">
       <c r="B4">
         <v>0</v>
       </c>
@@ -1269,7 +1270,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="5" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:102" dyDescent="0.2">
       <c r="B5">
         <v>0</v>
       </c>
@@ -1574,7 +1575,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="6" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:102" dyDescent="0.2">
       <c r="B6">
         <v>0</v>
       </c>
@@ -1879,7 +1880,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="7" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:102" dyDescent="0.2">
       <c r="B7">
         <v>0</v>
       </c>
@@ -2184,7 +2185,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="8" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:102" dyDescent="0.2">
       <c r="B8">
         <v>0</v>
       </c>
@@ -2489,7 +2490,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="9" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:102" dyDescent="0.2">
       <c r="B9">
         <v>0</v>
       </c>
@@ -2794,7 +2795,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="10" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:102" dyDescent="0.2">
       <c r="B10">
         <v>0</v>
       </c>
@@ -3099,7 +3100,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="11" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:102" dyDescent="0.2">
       <c r="B11">
         <v>0</v>
       </c>
@@ -3404,7 +3405,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="12" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:102" dyDescent="0.2">
       <c r="B12">
         <v>0</v>
       </c>
@@ -3709,7 +3710,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="13" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:102" dyDescent="0.2">
       <c r="B13">
         <v>0</v>
       </c>
@@ -4014,7 +4015,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="14" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:102" dyDescent="0.2">
       <c r="B14">
         <v>0</v>
       </c>
@@ -4319,7 +4320,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="15" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:102" dyDescent="0.2">
       <c r="B15">
         <v>0</v>
       </c>
@@ -4624,7 +4625,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="16" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:102" dyDescent="0.2">
       <c r="B16">
         <v>0</v>
       </c>
@@ -4929,7 +4930,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="17" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:102" dyDescent="0.2">
       <c r="B17">
         <v>0</v>
       </c>
@@ -5234,7 +5235,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="18" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:102" dyDescent="0.2">
       <c r="B18">
         <v>0</v>
       </c>
@@ -5539,7 +5540,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="19" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:102" dyDescent="0.2">
       <c r="B19">
         <v>0</v>
       </c>
@@ -5844,7 +5845,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="20" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:102" dyDescent="0.2">
       <c r="B20">
         <v>0</v>
       </c>
@@ -6149,7 +6150,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="21" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:102" dyDescent="0.2">
       <c r="B21">
         <v>0</v>
       </c>
@@ -6454,7 +6455,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="22" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:102" dyDescent="0.2">
       <c r="B22">
         <v>0</v>
       </c>
@@ -6759,7 +6760,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="23" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:102" dyDescent="0.2">
       <c r="B23">
         <v>0</v>
       </c>
@@ -7064,7 +7065,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="24" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:102" dyDescent="0.2">
       <c r="B24">
         <v>0</v>
       </c>
@@ -7369,7 +7370,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="25" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:102" dyDescent="0.2">
       <c r="B25">
         <v>0</v>
       </c>
@@ -7674,7 +7675,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="26" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:102" dyDescent="0.2">
       <c r="B26">
         <v>0</v>
       </c>
@@ -7979,7 +7980,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="27" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:102" dyDescent="0.2">
       <c r="B27">
         <v>0</v>
       </c>
@@ -8284,7 +8285,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="28" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:102" dyDescent="0.2">
       <c r="B28">
         <v>0</v>
       </c>
@@ -8589,7 +8590,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="29" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:102" dyDescent="0.2">
       <c r="B29">
         <v>0</v>
       </c>
@@ -8894,7 +8895,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="30" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:102" dyDescent="0.2">
       <c r="B30">
         <v>0</v>
       </c>
@@ -9199,7 +9200,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="31" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:102" dyDescent="0.2">
       <c r="B31">
         <v>0</v>
       </c>
@@ -9504,7 +9505,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="32" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:102" dyDescent="0.2">
       <c r="B32">
         <v>0</v>
       </c>
@@ -9809,7 +9810,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="33" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:102" dyDescent="0.2">
       <c r="B33">
         <v>0</v>
       </c>
@@ -10114,7 +10115,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="34" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:102" dyDescent="0.2">
       <c r="B34">
         <v>0</v>
       </c>
@@ -10419,7 +10420,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="35" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:102" dyDescent="0.2">
       <c r="B35">
         <v>0</v>
       </c>
@@ -10724,7 +10725,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="36" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:102" dyDescent="0.2">
       <c r="B36">
         <v>0</v>
       </c>
@@ -11029,7 +11030,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="37" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:102" dyDescent="0.2">
       <c r="B37">
         <v>0</v>
       </c>
@@ -11334,7 +11335,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="38" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:102" dyDescent="0.2">
       <c r="B38">
         <v>0</v>
       </c>
@@ -11639,7 +11640,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="39" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:102" dyDescent="0.2">
       <c r="B39">
         <v>0</v>
       </c>
@@ -11944,7 +11945,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="40" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:102" dyDescent="0.2">
       <c r="B40">
         <v>0</v>
       </c>
@@ -12249,7 +12250,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="41" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:102" dyDescent="0.2">
       <c r="B41">
         <v>0</v>
       </c>
@@ -12554,7 +12555,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="42" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:102" dyDescent="0.2">
       <c r="B42">
         <v>0</v>
       </c>
@@ -12859,7 +12860,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="43" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:102" dyDescent="0.2">
       <c r="B43">
         <v>0</v>
       </c>
@@ -13164,7 +13165,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="44" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:102" dyDescent="0.2">
       <c r="B44">
         <v>0</v>
       </c>
@@ -13469,7 +13470,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="45" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:102" dyDescent="0.2">
       <c r="B45">
         <v>0</v>
       </c>
@@ -13774,7 +13775,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="46" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:102" dyDescent="0.2">
       <c r="B46">
         <v>0</v>
       </c>
@@ -14079,7 +14080,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="47" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:102" dyDescent="0.2">
       <c r="B47">
         <v>0</v>
       </c>
@@ -14384,7 +14385,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="48" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:102" dyDescent="0.2">
       <c r="B48">
         <v>0</v>
       </c>
@@ -14689,7 +14690,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="49" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:102" dyDescent="0.2">
       <c r="B49">
         <v>0</v>
       </c>
@@ -14994,7 +14995,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="50" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:102" dyDescent="0.2">
       <c r="B50">
         <v>0</v>
       </c>
@@ -15299,7 +15300,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="51" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:102" dyDescent="0.2">
       <c r="B51">
         <v>0</v>
       </c>
@@ -15604,7 +15605,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="52" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:102" dyDescent="0.2">
       <c r="B52">
         <v>0</v>
       </c>
@@ -15909,7 +15910,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="53" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:102" dyDescent="0.2">
       <c r="B53">
         <v>0</v>
       </c>
@@ -16214,7 +16215,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="54" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:102" dyDescent="0.2">
       <c r="B54">
         <v>0</v>
       </c>
@@ -16519,7 +16520,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="55" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:102" dyDescent="0.2">
       <c r="B55">
         <v>0</v>
       </c>
@@ -16824,7 +16825,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="56" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:102" dyDescent="0.2">
       <c r="B56">
         <v>0</v>
       </c>
@@ -17129,7 +17130,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="57" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:102" dyDescent="0.2">
       <c r="B57">
         <v>0</v>
       </c>
@@ -17434,7 +17435,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="58" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:102" dyDescent="0.2">
       <c r="B58">
         <v>0</v>
       </c>
@@ -17739,7 +17740,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="59" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:102" dyDescent="0.2">
       <c r="B59">
         <v>0</v>
       </c>
@@ -18044,7 +18045,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="60" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:102" dyDescent="0.2">
       <c r="B60">
         <v>0</v>
       </c>
@@ -18349,7 +18350,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="61" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:102" dyDescent="0.2">
       <c r="B61">
         <v>0</v>
       </c>
@@ -18654,7 +18655,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="62" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:102" dyDescent="0.2">
       <c r="B62">
         <v>0</v>
       </c>
@@ -18959,7 +18960,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="63" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:102" dyDescent="0.2">
       <c r="B63">
         <v>0</v>
       </c>
@@ -19264,7 +19265,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="64" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:102" dyDescent="0.2">
       <c r="B64">
         <v>0</v>
       </c>
@@ -19569,7 +19570,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="65" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:102" dyDescent="0.2">
       <c r="B65">
         <v>0</v>
       </c>
@@ -19874,7 +19875,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="66" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:102" dyDescent="0.2">
       <c r="B66">
         <v>0</v>
       </c>
@@ -20179,7 +20180,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="67" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:102" dyDescent="0.2">
       <c r="B67">
         <v>0</v>
       </c>
@@ -20484,7 +20485,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="68" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:102" dyDescent="0.2">
       <c r="B68">
         <v>0</v>
       </c>
@@ -20789,7 +20790,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="69" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:102" dyDescent="0.2">
       <c r="B69">
         <v>0</v>
       </c>
@@ -21094,7 +21095,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="70" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:102" dyDescent="0.2">
       <c r="B70">
         <v>0</v>
       </c>
@@ -21399,7 +21400,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="71" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:102" dyDescent="0.2">
       <c r="B71">
         <v>0</v>
       </c>
@@ -21704,7 +21705,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="72" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:102" dyDescent="0.2">
       <c r="B72">
         <v>0</v>
       </c>
@@ -22009,7 +22010,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="73" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:102" dyDescent="0.2">
       <c r="B73">
         <v>0</v>
       </c>
@@ -22314,7 +22315,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="74" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:102" dyDescent="0.2">
       <c r="B74">
         <v>0</v>
       </c>
@@ -22619,7 +22620,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="75" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:102" dyDescent="0.2">
       <c r="B75">
         <v>0</v>
       </c>
@@ -22924,7 +22925,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="76" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:102" dyDescent="0.2">
       <c r="B76">
         <v>0</v>
       </c>
@@ -23229,7 +23230,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="77" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:102" dyDescent="0.2">
       <c r="B77">
         <v>0</v>
       </c>
@@ -23534,7 +23535,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="78" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:102" dyDescent="0.2">
       <c r="B78">
         <v>0</v>
       </c>
@@ -23839,7 +23840,7 @@
         <v>0.63410980384046756</v>
       </c>
     </row>
-    <row r="79" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:102" dyDescent="0.2">
       <c r="B79">
         <v>0</v>
       </c>
@@ -24144,7 +24145,7 @@
         <v>0.62661948196218142</v>
       </c>
     </row>
-    <row r="80" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:102" dyDescent="0.2">
       <c r="B80">
         <v>0</v>
       </c>
@@ -24449,7 +24450,7 @@
         <v>0.6142669335832448</v>
       </c>
     </row>
-    <row r="81" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:102" dyDescent="0.2">
       <c r="B81">
         <v>0</v>
       </c>
@@ -24754,7 +24755,7 @@
         <v>0.5972469657706484</v>
       </c>
     </row>
-    <row r="82" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:102" dyDescent="0.2">
       <c r="B82">
         <v>0</v>
       </c>
@@ -25059,7 +25060,7 @@
         <v>0.57582799358403247</v>
       </c>
     </row>
-    <row r="83" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:102" dyDescent="0.2">
       <c r="B83">
         <v>0</v>
       </c>
@@ -25364,7 +25365,7 @@
         <v>0.55034780700985408</v>
       </c>
     </row>
-    <row r="84" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:102" dyDescent="0.2">
       <c r="B84">
         <v>0</v>
       </c>
@@ -25669,7 +25670,7 @@
         <v>0.52120824381151398</v>
       </c>
     </row>
-    <row r="85" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:102" dyDescent="0.2">
       <c r="B85">
         <v>0</v>
       </c>
@@ -25974,7 +25975,7 @@
         <v>0.4888688523077806</v>
       </c>
     </row>
-    <row r="86" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:102" dyDescent="0.2">
       <c r="B86">
         <v>0</v>
       </c>
@@ -26279,7 +26280,7 @@
         <v>0.45383964402128402</v>
       </c>
     </row>
-    <row r="87" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:102" dyDescent="0.2">
       <c r="B87">
         <v>0</v>
       </c>
@@ -26584,7 +26585,7 @@
         <v>0.41667305049213732</v>
       </c>
     </row>
-    <row r="88" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:102" dyDescent="0.2">
       <c r="B88">
         <v>0</v>
       </c>
@@ -26889,7 +26890,7 @@
         <v>0.37795521110254182</v>
       </c>
     </row>
-    <row r="89" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:102" dyDescent="0.2">
       <c r="B89">
         <v>0</v>
       </c>
@@ -27194,7 +27195,7 @@
         <v>0.33829672930858756</v>
       </c>
     </row>
-    <row r="90" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:102" dyDescent="0.2">
       <c r="B90">
         <v>0</v>
       </c>
@@ -27499,7 +27500,7 @@
         <v>0.29832304305899382</v>
       </c>
     </row>
-    <row r="91" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:102" dyDescent="0.2">
       <c r="B91">
         <v>0</v>
       </c>
@@ -27804,7 +27805,7 @@
         <v>0.25866456126503951</v>
       </c>
     </row>
-    <row r="92" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:102" dyDescent="0.2">
       <c r="B92">
         <v>0</v>
       </c>
@@ -28109,7 +28110,7 @@
         <v>0.21994672187544401</v>
       </c>
     </row>
-    <row r="93" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:102" dyDescent="0.2">
       <c r="B93">
         <v>0</v>
       </c>
@@ -28414,7 +28415,7 @@
         <v>0.18278012834629723</v>
       </c>
     </row>
-    <row r="94" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:102" dyDescent="0.2">
       <c r="B94">
         <v>0</v>
       </c>
@@ -28719,7 +28720,7 @@
         <v>0.14775092005980078</v>
       </c>
     </row>
-    <row r="95" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:102" dyDescent="0.2">
       <c r="B95">
         <v>0</v>
       </c>
@@ -29024,7 +29025,7 @@
         <v>0.11541152855606736</v>
       </c>
     </row>
-    <row r="96" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:102" dyDescent="0.2">
       <c r="B96">
         <v>0</v>
       </c>
@@ -29329,7 +29330,7 @@
         <v>8.6271965357727201E-2</v>
       </c>
     </row>
-    <row r="97" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:102" dyDescent="0.2">
       <c r="B97">
         <v>0</v>
       </c>
@@ -29634,7 +29635,7 @@
         <v>6.0791778783548842E-2</v>
       </c>
     </row>
-    <row r="98" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:102" dyDescent="0.2">
       <c r="B98">
         <v>0</v>
       </c>
@@ -29939,7 +29940,7 @@
         <v>3.9372806596933062E-2</v>
       </c>
     </row>
-    <row r="99" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:102" dyDescent="0.2">
       <c r="B99">
         <v>0</v>
       </c>
@@ -30244,7 +30245,7 @@
         <v>2.2352838784336533E-2</v>
       </c>
     </row>
-    <row r="100" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:102" dyDescent="0.2">
       <c r="B100">
         <v>0</v>
       </c>
@@ -30549,7 +30550,7 @@
         <v>1.0000290405399933E-2</v>
       </c>
     </row>
-    <row r="101" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:102" dyDescent="0.2">
       <c r="B101">
         <v>0</v>
       </c>
@@ -30854,7 +30855,7 @@
         <v>2.5099685271137771E-3</v>
       </c>
     </row>
-    <row r="102" spans="2:102" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:102" dyDescent="0.2">
       <c r="B102">
         <v>0</v>
       </c>
@@ -31170,13 +31171,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879DC10F-4D61-4058-B8EE-934485331524}">
   <dimension ref="A1:CW102"/>
   <sheetViews>
-    <sheetView topLeftCell="CI1" workbookViewId="0">
-      <selection sqref="A1:CW1"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:101" dyDescent="0.2">
       <c r="A1">
         <v>0</v>
       </c>
@@ -31481,7 +31482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:101" dyDescent="0.2">
       <c r="C2">
         <v>0</v>
       </c>
@@ -31489,7 +31490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:101" dyDescent="0.2">
       <c r="C3">
         <v>0.04</v>
       </c>
@@ -31497,7 +31498,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="4" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:101" dyDescent="0.2">
       <c r="C4">
         <v>0.08</v>
       </c>
@@ -31505,7 +31506,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="5" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:101" dyDescent="0.2">
       <c r="C5">
         <v>0.12</v>
       </c>
@@ -31513,7 +31514,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="6" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:101" dyDescent="0.2">
       <c r="C6">
         <v>0.16</v>
       </c>
@@ -31521,7 +31522,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="7" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:101" dyDescent="0.2">
       <c r="C7">
         <v>0.2</v>
       </c>
@@ -31529,7 +31530,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:101" dyDescent="0.2">
       <c r="C8">
         <v>0.24</v>
       </c>
@@ -31537,7 +31538,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="9" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:101" dyDescent="0.2">
       <c r="C9">
         <v>0.28000000000000003</v>
       </c>
@@ -31545,7 +31546,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:101" dyDescent="0.2">
       <c r="C10">
         <v>0.32</v>
       </c>
@@ -31553,7 +31554,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="11" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:101" dyDescent="0.2">
       <c r="C11">
         <v>0.36</v>
       </c>
@@ -31561,7 +31562,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="12" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:101" dyDescent="0.2">
       <c r="C12">
         <v>0.4</v>
       </c>
@@ -31569,7 +31570,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:101" dyDescent="0.2">
       <c r="C13">
         <v>0.44</v>
       </c>
@@ -31577,7 +31578,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="14" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:101" dyDescent="0.2">
       <c r="C14">
         <v>0.48</v>
       </c>
@@ -31585,7 +31586,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="15" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:101" dyDescent="0.2">
       <c r="C15">
         <v>0.52</v>
       </c>
@@ -31593,7 +31594,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="16" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:101" dyDescent="0.2">
       <c r="C16">
         <v>0.56000000000000005</v>
       </c>
@@ -31601,7 +31602,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:101" dyDescent="0.2">
       <c r="C17">
         <v>0.6</v>
       </c>
@@ -31609,7 +31610,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:101" dyDescent="0.2">
       <c r="C18">
         <v>0.64</v>
       </c>
@@ -31617,7 +31618,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:101" dyDescent="0.2">
       <c r="C19">
         <v>0.68</v>
       </c>
@@ -31625,7 +31626,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:101" dyDescent="0.2">
       <c r="C20">
         <v>0.72</v>
       </c>
@@ -31633,7 +31634,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:101" dyDescent="0.2">
       <c r="C21">
         <v>0.76</v>
       </c>
@@ -31641,7 +31642,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:101" dyDescent="0.2">
       <c r="C22">
         <v>0.8</v>
       </c>
@@ -31649,7 +31650,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:101" dyDescent="0.2">
       <c r="C23">
         <v>0.84</v>
       </c>
@@ -31657,7 +31658,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:101" dyDescent="0.2">
       <c r="C24">
         <v>0.88</v>
       </c>
@@ -31665,7 +31666,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:101" dyDescent="0.2">
       <c r="C25">
         <v>0.92</v>
       </c>
@@ -31673,7 +31674,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:101" dyDescent="0.2">
       <c r="C26">
         <v>0.96</v>
       </c>
@@ -31681,7 +31682,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:101" dyDescent="0.2">
       <c r="C27">
         <v>1</v>
       </c>
@@ -31689,7 +31690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:101" dyDescent="0.2">
       <c r="C28">
         <v>1.04</v>
       </c>
@@ -31697,7 +31698,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:101" dyDescent="0.2">
       <c r="C29">
         <v>1.08</v>
       </c>
@@ -31705,7 +31706,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:101" dyDescent="0.2">
       <c r="C30">
         <v>1.1200000000000001</v>
       </c>
@@ -31713,7 +31714,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:101" dyDescent="0.2">
       <c r="C31">
         <v>1.1599999999999999</v>
       </c>
@@ -31721,7 +31722,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:101" dyDescent="0.2">
       <c r="C32">
         <v>1.2</v>
       </c>
@@ -31729,7 +31730,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:101" dyDescent="0.2">
       <c r="C33">
         <v>1.24</v>
       </c>
@@ -31737,7 +31738,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:101" dyDescent="0.2">
       <c r="C34">
         <v>1.28</v>
       </c>
@@ -31745,7 +31746,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:101" dyDescent="0.2">
       <c r="C35">
         <v>1.32</v>
       </c>
@@ -31753,7 +31754,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:101" dyDescent="0.2">
       <c r="C36">
         <v>1.36</v>
       </c>
@@ -31761,7 +31762,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:101" dyDescent="0.2">
       <c r="C37">
         <v>1.4</v>
       </c>
@@ -31769,7 +31770,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:101" dyDescent="0.2">
       <c r="C38">
         <v>1.44</v>
       </c>
@@ -31777,7 +31778,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:101" dyDescent="0.2">
       <c r="C39">
         <v>1.48</v>
       </c>
@@ -31785,7 +31786,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:101" dyDescent="0.2">
       <c r="C40">
         <v>1.52</v>
       </c>
@@ -31793,7 +31794,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:101" dyDescent="0.2">
       <c r="C41">
         <v>1.56</v>
       </c>
@@ -31801,7 +31802,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:101" dyDescent="0.2">
       <c r="C42">
         <v>1.6</v>
       </c>
@@ -31809,7 +31810,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:101" dyDescent="0.2">
       <c r="C43">
         <v>1.64</v>
       </c>
@@ -31817,7 +31818,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:101" dyDescent="0.2">
       <c r="C44">
         <v>1.68</v>
       </c>
@@ -31825,7 +31826,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:101" dyDescent="0.2">
       <c r="C45">
         <v>1.72</v>
       </c>
@@ -31833,7 +31834,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:101" dyDescent="0.2">
       <c r="C46">
         <v>1.76</v>
       </c>
@@ -31841,7 +31842,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:101" dyDescent="0.2">
       <c r="C47">
         <v>1.8</v>
       </c>
@@ -31849,7 +31850,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:101" dyDescent="0.2">
       <c r="C48">
         <v>1.84</v>
       </c>
@@ -31857,7 +31858,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:101" dyDescent="0.2">
       <c r="C49">
         <v>1.88</v>
       </c>
@@ -31865,7 +31866,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:101" dyDescent="0.2">
       <c r="C50">
         <v>1.92</v>
       </c>
@@ -31873,7 +31874,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:101" dyDescent="0.2">
       <c r="C51">
         <v>1.96</v>
       </c>
@@ -31881,7 +31882,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:101" dyDescent="0.2">
       <c r="C52">
         <v>2</v>
       </c>
@@ -31889,7 +31890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:101" dyDescent="0.2">
       <c r="C53">
         <v>2.04</v>
       </c>
@@ -31897,7 +31898,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:101" dyDescent="0.2">
       <c r="C54">
         <v>2.08</v>
       </c>
@@ -31905,7 +31906,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:101" dyDescent="0.2">
       <c r="C55">
         <v>2.12</v>
       </c>
@@ -31913,7 +31914,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:101" dyDescent="0.2">
       <c r="C56">
         <v>2.16</v>
       </c>
@@ -31921,7 +31922,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:101" dyDescent="0.2">
       <c r="C57">
         <v>2.2000000000000002</v>
       </c>
@@ -31929,7 +31930,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:101" dyDescent="0.2">
       <c r="C58">
         <v>2.2400000000000002</v>
       </c>
@@ -31937,7 +31938,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:101" dyDescent="0.2">
       <c r="C59">
         <v>2.2799999999999998</v>
       </c>
@@ -31945,7 +31946,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:101" dyDescent="0.2">
       <c r="C60">
         <v>2.3199999999999998</v>
       </c>
@@ -31953,7 +31954,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:101" dyDescent="0.2">
       <c r="C61">
         <v>2.36</v>
       </c>
@@ -31961,7 +31962,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:101" dyDescent="0.2">
       <c r="C62">
         <v>2.4</v>
       </c>
@@ -31969,7 +31970,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:101" dyDescent="0.2">
       <c r="C63">
         <v>2.44</v>
       </c>
@@ -31977,7 +31978,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:101" dyDescent="0.2">
       <c r="C64">
         <v>2.48</v>
       </c>
@@ -31985,7 +31986,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:101" dyDescent="0.2">
       <c r="C65">
         <v>2.52</v>
       </c>
@@ -31993,7 +31994,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:101" dyDescent="0.2">
       <c r="C66">
         <v>2.56</v>
       </c>
@@ -32001,7 +32002,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:101" dyDescent="0.2">
       <c r="C67">
         <v>2.6</v>
       </c>
@@ -32009,7 +32010,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:101" dyDescent="0.2">
       <c r="C68">
         <v>2.64</v>
       </c>
@@ -32017,7 +32018,7 @@
         <v>2.64</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:101" dyDescent="0.2">
       <c r="C69">
         <v>2.68</v>
       </c>
@@ -32025,7 +32026,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:101" dyDescent="0.2">
       <c r="C70">
         <v>2.72</v>
       </c>
@@ -32033,7 +32034,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:101" dyDescent="0.2">
       <c r="C71">
         <v>2.76</v>
       </c>
@@ -32041,7 +32042,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:101" dyDescent="0.2">
       <c r="C72">
         <v>2.8</v>
       </c>
@@ -32049,7 +32050,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:101" dyDescent="0.2">
       <c r="C73">
         <v>2.84</v>
       </c>
@@ -32057,7 +32058,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:101" dyDescent="0.2">
       <c r="C74">
         <v>2.88</v>
       </c>
@@ -32065,7 +32066,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:101" dyDescent="0.2">
       <c r="C75">
         <v>2.92</v>
       </c>
@@ -32073,7 +32074,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:101" dyDescent="0.2">
       <c r="C76">
         <v>2.96</v>
       </c>
@@ -32081,7 +32082,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:101" dyDescent="0.2">
       <c r="C77">
         <v>3</v>
       </c>
@@ -32089,7 +32090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:101" dyDescent="0.2">
       <c r="C78">
         <v>3.04</v>
       </c>
@@ -32097,7 +32098,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:101" dyDescent="0.2">
       <c r="C79">
         <v>3.08</v>
       </c>
@@ -32105,7 +32106,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:101" dyDescent="0.2">
       <c r="C80">
         <v>3.12</v>
       </c>
@@ -32113,7 +32114,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:101" dyDescent="0.2">
       <c r="C81">
         <v>3.16</v>
       </c>
@@ -32121,7 +32122,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:101" dyDescent="0.2">
       <c r="C82">
         <v>3.2</v>
       </c>
@@ -32129,7 +32130,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:101" dyDescent="0.2">
       <c r="C83">
         <v>3.24</v>
       </c>
@@ -32137,7 +32138,7 @@
         <v>3.24</v>
       </c>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:101" dyDescent="0.2">
       <c r="C84">
         <v>3.28</v>
       </c>
@@ -32145,7 +32146,7 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:101" dyDescent="0.2">
       <c r="C85">
         <v>3.32</v>
       </c>
@@ -32153,7 +32154,7 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:101" dyDescent="0.2">
       <c r="C86">
         <v>3.36</v>
       </c>
@@ -32161,7 +32162,7 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:101" dyDescent="0.2">
       <c r="C87">
         <v>3.4</v>
       </c>
@@ -32169,7 +32170,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:101" dyDescent="0.2">
       <c r="C88">
         <v>3.44</v>
       </c>
@@ -32177,7 +32178,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:101" dyDescent="0.2">
       <c r="C89">
         <v>3.48</v>
       </c>
@@ -32185,7 +32186,7 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:101" dyDescent="0.2">
       <c r="C90">
         <v>3.52</v>
       </c>
@@ -32193,7 +32194,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:101" dyDescent="0.2">
       <c r="C91">
         <v>3.56</v>
       </c>
@@ -32201,7 +32202,7 @@
         <v>3.56</v>
       </c>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:101" dyDescent="0.2">
       <c r="C92">
         <v>3.6</v>
       </c>
@@ -32209,7 +32210,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:101" dyDescent="0.2">
       <c r="C93">
         <v>3.64</v>
       </c>
@@ -32217,7 +32218,7 @@
         <v>3.64</v>
       </c>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:101" dyDescent="0.2">
       <c r="C94">
         <v>3.68</v>
       </c>
@@ -32225,7 +32226,7 @@
         <v>3.68</v>
       </c>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:101" dyDescent="0.2">
       <c r="C95">
         <v>3.72</v>
       </c>
@@ -32233,7 +32234,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:101" dyDescent="0.2">
       <c r="C96">
         <v>3.76</v>
       </c>
@@ -32241,7 +32242,7 @@
         <v>3.76</v>
       </c>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:101" dyDescent="0.2">
       <c r="C97">
         <v>3.8</v>
       </c>
@@ -32249,7 +32250,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:101" dyDescent="0.2">
       <c r="C98">
         <v>3.84</v>
       </c>
@@ -32257,7 +32258,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:101" dyDescent="0.2">
       <c r="C99">
         <v>3.88</v>
       </c>
@@ -32265,7 +32266,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:101" dyDescent="0.2">
       <c r="C100">
         <v>3.92</v>
       </c>
@@ -32273,7 +32274,7 @@
         <v>3.92</v>
       </c>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:101" dyDescent="0.2">
       <c r="C101">
         <v>3.96</v>
       </c>
@@ -32281,7 +32282,7 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:101" dyDescent="0.2">
       <c r="C102">
         <v>4</v>
       </c>
@@ -32306,7 +32307,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:102" dyDescent="0.2">
       <c r="B1">
         <v>0</v>
       </c>
@@ -32611,7 +32612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:102" dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -32919,7 +32920,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="3" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:102" dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -33227,7 +33228,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="4" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:102" dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -33535,7 +33536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:102" dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -33843,7 +33844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:102" dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -34151,7 +34152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:102" dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -34459,7 +34460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:102" dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -34767,7 +34768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:102" dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -35075,7 +35076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:102" dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -35383,7 +35384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:102" dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
@@ -35691,7 +35692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:102" dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
@@ -35999,7 +36000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:102" dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
@@ -36307,7 +36308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:102" dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
@@ -36615,7 +36616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:102" dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
@@ -36923,7 +36924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:102" dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>
@@ -37231,7 +37232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:102" dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
@@ -37539,7 +37540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:102" dyDescent="0.2">
       <c r="A18">
         <v>0</v>
       </c>
@@ -37847,7 +37848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:102" dyDescent="0.2">
       <c r="A19">
         <v>0</v>
       </c>
@@ -38155,7 +38156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:102" dyDescent="0.2">
       <c r="A20">
         <v>0</v>
       </c>
@@ -38463,7 +38464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:102" dyDescent="0.2">
       <c r="A21">
         <v>0</v>
       </c>
@@ -38771,7 +38772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:102" dyDescent="0.2">
       <c r="A22">
         <v>0</v>
       </c>
@@ -39079,7 +39080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:102" dyDescent="0.2">
       <c r="A23">
         <v>0.19999999999959761</v>
       </c>
@@ -39387,7 +39388,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="24" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:102" dyDescent="0.2">
       <c r="A24">
         <v>0.19999999999965931</v>
       </c>
@@ -39695,7 +39696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:102" dyDescent="0.2">
       <c r="A25">
         <v>0.1999999999997211</v>
       </c>
@@ -40003,7 +40004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:102" dyDescent="0.2">
       <c r="A26">
         <v>0.1999999999997828</v>
       </c>
@@ -40311,7 +40312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:102" dyDescent="0.2">
       <c r="A27">
         <v>0.1999999999998445</v>
       </c>
@@ -40619,7 +40620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:102" dyDescent="0.2">
       <c r="A28">
         <v>0.19999999999990631</v>
       </c>
@@ -40927,7 +40928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:102" dyDescent="0.2">
       <c r="A29">
         <v>0.19999999999996801</v>
       </c>
@@ -41235,7 +41236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:102" dyDescent="0.2">
       <c r="A30">
         <v>0.20000000000002979</v>
       </c>
@@ -41543,7 +41544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:102" dyDescent="0.2">
       <c r="A31">
         <v>0.20000000000009149</v>
       </c>
@@ -41851,7 +41852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:102" dyDescent="0.2">
       <c r="A32">
         <v>0.20000000000015331</v>
       </c>
@@ -42159,7 +42160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:102" dyDescent="0.2">
       <c r="A33">
         <v>0.20000000000021501</v>
       </c>
@@ -42467,7 +42468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:102" dyDescent="0.2">
       <c r="A34">
         <v>0.20000000000027671</v>
       </c>
@@ -42775,7 +42776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:102" dyDescent="0.2">
       <c r="A35">
         <v>0.20000000000033849</v>
       </c>
@@ -43083,7 +43084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:102" dyDescent="0.2">
       <c r="A36">
         <v>0.20000000000040019</v>
       </c>
@@ -43391,7 +43392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:102" dyDescent="0.2">
       <c r="A37">
         <v>0.200000000000462</v>
       </c>
@@ -43699,7 +43700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:102" dyDescent="0.2">
       <c r="A38">
         <v>0.20000000000052359</v>
       </c>
@@ -44007,7 +44008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:102" dyDescent="0.2">
       <c r="A39">
         <v>0.20000000000058549</v>
       </c>
@@ -44315,7 +44316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:102" dyDescent="0.2">
       <c r="A40">
         <v>0.20000000000064719</v>
       </c>
@@ -44623,7 +44624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:102" dyDescent="0.2">
       <c r="A41">
         <v>0.20000000000070889</v>
       </c>
@@ -44931,7 +44932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:102" dyDescent="0.2">
       <c r="A42">
         <v>0.2000000000007707</v>
       </c>
@@ -45239,7 +45240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:102" dyDescent="0.2">
       <c r="A43">
         <v>0.2000000000008324</v>
       </c>
@@ -45547,7 +45548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:102" dyDescent="0.2">
       <c r="A44">
         <v>0.39999999999925662</v>
       </c>
@@ -45855,7 +45856,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="45" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:102" dyDescent="0.2">
       <c r="A45">
         <v>0.39999999999937691</v>
       </c>
@@ -46163,7 +46164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:102" dyDescent="0.2">
       <c r="A46">
         <v>0.39999999999949742</v>
       </c>
@@ -46471,7 +46472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:102" dyDescent="0.2">
       <c r="A47">
         <v>0.4000000000016648</v>
       </c>
@@ -46779,7 +46780,7 @@
         <v>2.5099685271137771E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:102" dyDescent="0.2">
       <c r="A48">
         <v>0.59999999999881148</v>
       </c>
@@ -47087,7 +47088,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="49" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:102" dyDescent="0.2">
       <c r="A49">
         <v>0.60000000000249765</v>
       </c>
@@ -47395,7 +47396,7 @@
         <v>1.0000290405399933E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:102" dyDescent="0.2">
       <c r="A50">
         <v>0.79999999999822768</v>
       </c>
@@ -47703,7 +47704,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="51" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:102" dyDescent="0.2">
       <c r="A51">
         <v>0.80000000000333005</v>
       </c>
@@ -48011,7 +48012,7 @@
         <v>2.2352838784336533E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:102" dyDescent="0.2">
       <c r="A52">
         <v>0.99999999999764377</v>
       </c>
@@ -48319,7 +48320,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="53" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:102" dyDescent="0.2">
       <c r="A53">
         <v>1.000000000004162</v>
       </c>
@@ -48627,7 +48628,7 @@
         <v>3.9372806596932847E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:102" dyDescent="0.2">
       <c r="A54">
         <v>1.1999999999970601</v>
       </c>
@@ -48935,7 +48936,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="55" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:102" dyDescent="0.2">
       <c r="A55">
         <v>1.2000000000049951</v>
       </c>
@@ -49243,7 +49244,7 @@
         <v>6.0791778783548557E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:102" dyDescent="0.2">
       <c r="A56">
         <v>1.3999999999964761</v>
       </c>
@@ -49551,7 +49552,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="57" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:102" dyDescent="0.2">
       <c r="A57">
         <v>1.400000000005827</v>
       </c>
@@ -49859,7 +49860,7 @@
         <v>8.6271965357726924E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:102" dyDescent="0.2">
       <c r="A58">
         <v>1.599999999995892</v>
       </c>
@@ -50167,7 +50168,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="59" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:102" dyDescent="0.2">
       <c r="A59">
         <v>1.6000000000066601</v>
       </c>
@@ -50475,7 +50476,7 @@
         <v>0.11541152855606736</v>
       </c>
     </row>
-    <row r="60" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:102" dyDescent="0.2">
       <c r="A60">
         <v>1.7999999999953089</v>
       </c>
@@ -50783,7 +50784,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="61" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:102" dyDescent="0.2">
       <c r="A61">
         <v>1.8000000000074921</v>
       </c>
@@ -51091,7 +51092,7 @@
         <v>0.14775092005980078</v>
       </c>
     </row>
-    <row r="62" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:102" dyDescent="0.2">
       <c r="A62">
         <v>1.999999999994768</v>
       </c>
@@ -51399,7 +51400,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="63" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:102" dyDescent="0.2">
       <c r="A63">
         <v>2.0000000000082379</v>
       </c>
@@ -51707,7 +51708,7 @@
         <v>0.18278012834629723</v>
       </c>
     </row>
-    <row r="64" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:102" dyDescent="0.2">
       <c r="A64">
         <v>2.199999999995252</v>
       </c>
@@ -52015,7 +52016,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="65" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:102" dyDescent="0.2">
       <c r="A65">
         <v>2.2000000000069369</v>
       </c>
@@ -52323,7 +52324,7 @@
         <v>0.21994672187544401</v>
       </c>
     </row>
-    <row r="66" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:102" dyDescent="0.2">
       <c r="A66">
         <v>2.3999999999957802</v>
       </c>
@@ -52631,7 +52632,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="67" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:102" dyDescent="0.2">
       <c r="A67">
         <v>2.4000000000055501</v>
       </c>
@@ -52939,7 +52940,7 @@
         <v>0.25866456126503951</v>
       </c>
     </row>
-    <row r="68" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:102" dyDescent="0.2">
       <c r="A68">
         <v>2.599999999996307</v>
       </c>
@@ -53247,7 +53248,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="69" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:102" dyDescent="0.2">
       <c r="A69">
         <v>2.600000000004163</v>
       </c>
@@ -53555,7 +53556,7 @@
         <v>0.29832304305899382</v>
       </c>
     </row>
-    <row r="70" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:102" dyDescent="0.2">
       <c r="A70">
         <v>2.7999999999968348</v>
       </c>
@@ -53863,7 +53864,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="71" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:102" dyDescent="0.2">
       <c r="A71">
         <v>2.8000000000027749</v>
       </c>
@@ -54171,7 +54172,7 @@
         <v>0.33829672930858756</v>
       </c>
     </row>
-    <row r="72" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:102" dyDescent="0.2">
       <c r="A72">
         <v>2.999999999997363</v>
       </c>
@@ -54479,7 +54480,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="73" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:102" dyDescent="0.2">
       <c r="A73">
         <v>3.0000000000013878</v>
       </c>
@@ -54787,7 +54788,7 @@
         <v>0.37795521110254154</v>
       </c>
     </row>
-    <row r="74" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:102" dyDescent="0.2">
       <c r="A74">
         <v>3.1999999999978899</v>
       </c>
@@ -55095,7 +55096,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="75" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:102" dyDescent="0.2">
       <c r="A75">
         <v>3.2</v>
       </c>
@@ -55403,7 +55404,7 @@
         <v>0.41667305049213715</v>
       </c>
     </row>
-    <row r="76" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:102" dyDescent="0.2">
       <c r="A76">
         <v>3.3999999999984181</v>
       </c>
@@ -55711,7 +55712,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="77" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:102" dyDescent="0.2">
       <c r="A77">
         <v>3.3999999999986121</v>
       </c>
@@ -56019,7 +56020,7 @@
         <v>0.45383964402128391</v>
       </c>
     </row>
-    <row r="78" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:102" dyDescent="0.2">
       <c r="A78">
         <v>3.5999999999983339</v>
       </c>
@@ -56327,7 +56328,7 @@
         <v>0.48886885230778043</v>
       </c>
     </row>
-    <row r="79" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:102" dyDescent="0.2">
       <c r="A79">
         <v>3.5999999999989449</v>
       </c>
@@ -56635,7 +56636,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="80" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:102" dyDescent="0.2">
       <c r="A80">
         <v>3.7999999999991672</v>
       </c>
@@ -56943,7 +56944,7 @@
         <v>0.52120824381151387</v>
       </c>
     </row>
-    <row r="81" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:102" dyDescent="0.2">
       <c r="A81">
         <v>3.7999999999994731</v>
       </c>
@@ -57251,7 +57252,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="82" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:102" dyDescent="0.2">
       <c r="A82">
         <v>4</v>
       </c>
@@ -57559,7 +57560,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="83" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:102" dyDescent="0.2">
       <c r="A83">
         <v>4</v>
       </c>
@@ -57867,7 +57868,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="84" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:102" dyDescent="0.2">
       <c r="A84">
         <v>4</v>
       </c>
@@ -58175,7 +58176,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="85" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:102" dyDescent="0.2">
       <c r="A85">
         <v>4</v>
       </c>
@@ -58483,7 +58484,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="86" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:102" dyDescent="0.2">
       <c r="A86">
         <v>4</v>
       </c>
@@ -58791,7 +58792,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="87" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:102" dyDescent="0.2">
       <c r="A87">
         <v>4</v>
       </c>
@@ -59099,7 +59100,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="88" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:102" dyDescent="0.2">
       <c r="A88">
         <v>4</v>
       </c>
@@ -59407,7 +59408,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="89" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:102" dyDescent="0.2">
       <c r="A89">
         <v>4</v>
       </c>
@@ -59715,7 +59716,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="90" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:102" dyDescent="0.2">
       <c r="A90">
         <v>4</v>
       </c>
@@ -60023,7 +60024,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="91" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:102" dyDescent="0.2">
       <c r="A91">
         <v>4</v>
       </c>
@@ -60331,7 +60332,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="92" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:102" dyDescent="0.2">
       <c r="A92">
         <v>4</v>
       </c>
@@ -60639,7 +60640,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="93" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:102" dyDescent="0.2">
       <c r="A93">
         <v>4</v>
       </c>
@@ -60947,7 +60948,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="94" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:102" dyDescent="0.2">
       <c r="A94">
         <v>4</v>
       </c>
@@ -61255,7 +61256,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="95" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:102" dyDescent="0.2">
       <c r="A95">
         <v>4</v>
       </c>
@@ -61563,7 +61564,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="96" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:102" dyDescent="0.2">
       <c r="A96">
         <v>4</v>
       </c>
@@ -61871,7 +61872,7 @@
         <v>0.63661977236758138</v>
       </c>
     </row>
-    <row r="97" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:102" dyDescent="0.2">
       <c r="A97">
         <v>4</v>
       </c>
@@ -62179,7 +62180,7 @@
         <v>0.63410980384046756</v>
       </c>
     </row>
-    <row r="98" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:102" dyDescent="0.2">
       <c r="A98">
         <v>4</v>
       </c>
@@ -62487,7 +62488,7 @@
         <v>0.62661948196218142</v>
       </c>
     </row>
-    <row r="99" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:102" dyDescent="0.2">
       <c r="A99">
         <v>4</v>
       </c>
@@ -62795,7 +62796,7 @@
         <v>0.6142669335832448</v>
       </c>
     </row>
-    <row r="100" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:102" dyDescent="0.2">
       <c r="A100">
         <v>4</v>
       </c>
@@ -63103,7 +63104,7 @@
         <v>0.5972469657706484</v>
       </c>
     </row>
-    <row r="101" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:102" dyDescent="0.2">
       <c r="A101">
         <v>4</v>
       </c>
@@ -63411,7 +63412,7 @@
         <v>0.57582799358403247</v>
       </c>
     </row>
-    <row r="102" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:102" dyDescent="0.2">
       <c r="A102">
         <v>4</v>
       </c>
@@ -63727,4 +63728,6809 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A980AE0-DF7C-4F2C-986E-3C4B7EE41061}">
+  <dimension ref="A1:B1359"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="B2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3">
+        <v>0.0025099685271137416</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4">
+        <v>0.010000290405399933</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5">
+        <v>0.0223528387843365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6">
+        <v>0.039372806596932985</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7">
+        <v>0.06079177878354874</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8">
+        <v>0.08627196535772706</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9">
+        <v>0.11541152855606752</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10">
+        <v>0.14775092005980095</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11">
+        <v>0.1827801283462974</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12">
+        <v>0.2199467218754441</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13">
+        <v>0.25866456126503956</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14">
+        <v>0.2983230430589938</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15">
+        <v>0.33829672930858756</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16">
+        <v>0.3779552111025418</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="B17">
+        <v>0.4166730504921373</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18">
+        <v>0.453839644021284</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19">
+        <v>0.4888688523077806</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20">
+        <v>0.5212082438115139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21">
+        <v>0.5503478070098543</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22">
+        <v>0.5758279935840327</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23">
+        <v>0.5972469657706484</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24">
+        <v>0.6142669335832448</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25">
+        <v>0.6266194819621814</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="B26">
+        <v>0.6341098038404676</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="B27">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="B29">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="B30">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="B31">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="B32">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="B33">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="B34">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="B37">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="B38">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="B39">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="B40">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="B41">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="B42">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="B43">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="B44">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="B45">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="B46">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="B47">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="B48">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="B49">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="B50">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="B51">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="B52">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="B53">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="B54">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="B55">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="B56">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="B57">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="B58">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="B59">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="B60">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="B61">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="B62">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="B63">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="B64">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="B65">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="B66">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="B67">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="B68">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="B69">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="B70">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="B71">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="B72">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="B73">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="B74">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="B75">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="B76">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="B77">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="B78">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="B79">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="B80">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="B81">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="B82">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="B83">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="B84">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="B85">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="B86">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="B87">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="B88">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="B89">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="B90">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="B91">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="B92">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="B93">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="B94">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="B95">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="B96">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="B97">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="B98">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="B99">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="B100">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="B101">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="B102">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="B103">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="B104">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="B105">
+        <v>0.0025099685271137416</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="B106">
+        <v>0.010000290405399898</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="B107">
+        <v>0.0223528387843365</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="B108">
+        <v>0.039372806596932985</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="B109">
+        <v>0.06079177878354874</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="B110">
+        <v>0.08627196535772706</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="B111">
+        <v>0.11541152855606752</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="B112">
+        <v>0.14775092005980095</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="B113">
+        <v>0.1827801283462974</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="B114">
+        <v>0.2199467218754441</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="B115">
+        <v>0.25866456126503956</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="B116">
+        <v>0.29832304305899393</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="B117">
+        <v>0.33829672930858756</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="B118">
+        <v>0.3779552111025417</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="B119">
+        <v>0.4166730504921373</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="B120">
+        <v>0.453839644021284</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="B121">
+        <v>0.48886885230778043</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="B122">
+        <v>0.5212082438115139</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="B123">
+        <v>0.5503478070098543</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="B124">
+        <v>0.5758279935840327</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="B125">
+        <v>0.5972469657706484</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="B126">
+        <v>0.6142669335832448</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="B127">
+        <v>0.6266194819621814</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="B128">
+        <v>0.6341098038404676</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="B129">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="B130">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="B131">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="B132">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="B133">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="B134">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="B135">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="B136">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="B137">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="B138">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="B139">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="B140">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="B141">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="B142">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="B143">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="B144">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="B145">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="B146">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="B147">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="B148">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="B149">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="B150">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="B151">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="B152">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="B153">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="B154">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="B155">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="B156">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="B157">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="B158">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="B159">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="B160">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="B161">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="B162">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="B163">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="B164">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="B165">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="B166">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="B167">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="B168">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="B169">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="B170">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="B171">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="B172">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="B173">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="B174">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="B175">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="B176">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="B177">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="B178">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="B179">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="B180">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="B181">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="B182">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="B183">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="B184">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="B185">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="B186">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="B187">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="B188">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="B189">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="B190">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="B191">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="B192">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="B193">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="B194">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="B195">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="B196">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="B197">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="B198">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="B199">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="B200">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="B201">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="B202">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="B203">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="B204">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="B205">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="B206">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="B207">
+        <v>0.0025099685271137416</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="B208">
+        <v>0.010000290405399933</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="B209">
+        <v>0.0223528387843365</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="B210">
+        <v>0.039372806596932985</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="B211">
+        <v>0.06079177878354874</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="B212">
+        <v>0.08627196535772706</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="B213">
+        <v>0.11541152855606746</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="B214">
+        <v>0.14775092005980095</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="B215">
+        <v>0.1827801283462974</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="B216">
+        <v>0.2199467218754441</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="B217">
+        <v>0.25866456126503956</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="B218">
+        <v>0.29832304305899393</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="B219">
+        <v>0.33829672930858756</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="B220">
+        <v>0.3779552111025418</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="B221">
+        <v>0.4166730504921373</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="B222">
+        <v>0.453839644021284</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="B223">
+        <v>0.4888688523077806</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="B224">
+        <v>0.5212082438115139</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="B225">
+        <v>0.5503478070098543</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="B226">
+        <v>0.5758279935840327</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="B227">
+        <v>0.5972469657706484</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="B228">
+        <v>0.6142669335832448</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="B229">
+        <v>0.6266194819621814</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="B230">
+        <v>0.6341098038404677</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="B231">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="B232">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="B233">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="B234">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="B235">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="B236">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="B237">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="B238">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="B239">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="B240">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="B241">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="B242">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="B243">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="B244">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="B245">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="B246">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="B247">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="B248">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="B249">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="B250">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="B251">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="B252">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="B253">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="B254">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="B255">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="B256">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="B257">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="B258">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="B259">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="B260">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="B261">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="B262">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="B263">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="B264">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="B265">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="B266">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="B267">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="B268">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="B269">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="B270">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="B271">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="B272">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="B273">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="B274">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="B275">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="B276">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="B277">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="B278">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="B279">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="B280">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="B281">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="B282">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="B283">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="B284">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="B285">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="B286">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="B287">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="B288">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="B289">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="B290">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="B291">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="B292">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="B293">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="B294">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="B295">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="B296">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="B297">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="B298">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="B299">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="B300">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="B301">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="B302">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="B303">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="B304">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="B305">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="B306">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="B307">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="B308">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="B309">
+        <v>0.0025099685271137416</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="B310">
+        <v>0.010000290405399933</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="B311">
+        <v>0.0223528387843365</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="B312">
+        <v>0.039372806596932985</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="B313">
+        <v>0.06079177878354874</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="B314">
+        <v>0.08627196535772706</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="B315">
+        <v>0.11541152855606752</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="B316">
+        <v>0.14775092005980095</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="B317">
+        <v>0.1827801283462974</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="B318">
+        <v>0.2199467218754441</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="B319">
+        <v>0.25866456126503967</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="B320">
+        <v>0.2983230430589938</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="B321">
+        <v>0.33829672930858756</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="B322">
+        <v>0.3779552111025418</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="B323">
+        <v>0.4166730504921373</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="B324">
+        <v>0.453839644021284</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="B325">
+        <v>0.4888688523077806</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="B326">
+        <v>0.5212082438115139</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="B327">
+        <v>0.5503478070098543</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="B328">
+        <v>0.5758279935840327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="B329">
+        <v>0.5972469657706484</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="B330">
+        <v>0.6142669335832448</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="B331">
+        <v>0.6266194819621814</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="B332">
+        <v>0.6341098038404677</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="B333">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="B334">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="B335">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="B336">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="B337">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="B338">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="B339">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="B340">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="B341">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="B342">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="B343">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="B344">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="B345">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="B346">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="B347">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="B348">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="B349">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="B350">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="B351">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="B352">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="B353">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="B354">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="B355">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="B356">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="B357">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="B358">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="B359">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="B360">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="B361">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="B362">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="B363">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="B364">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="B365">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="B366">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="B367">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="B368">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="B369">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="B370">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="B371">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="B372">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="B373">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="B374">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="B375">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="B376">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="B377">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="B378">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="B379">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="B380">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="B381">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="B382">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="B383">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="B384">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="B385">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="B386">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="B387">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="B388">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="B389">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="B390">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="B391">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="B392">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="B393">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="B394">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="B395">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="B396">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="B397">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="B398">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="B399">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="B400">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="B401">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="B402">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="B403">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="B404">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="B405">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="B406">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="B407">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="B408">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="B409">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="B410">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="B411">
+        <v>0.0025099685271137416</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="B412">
+        <v>0.010000290405399898</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="B413">
+        <v>0.022352838784336533</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="B414">
+        <v>0.039372806596932985</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="B415">
+        <v>0.06079177878354874</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="B416">
+        <v>0.08627196535772706</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="B417">
+        <v>0.11541152855606752</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="B418">
+        <v>0.1477509200598009</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="B419">
+        <v>0.1827801283462974</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="B420">
+        <v>0.2199467218754441</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="B421">
+        <v>0.2586645612650395</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="B422">
+        <v>0.2983230430589938</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="B423">
+        <v>0.33829672930858756</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="B424">
+        <v>0.3779552111025417</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="B425">
+        <v>0.4166730504921373</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="B426">
+        <v>0.453839644021284</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="B427">
+        <v>0.48886885230778043</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="B428">
+        <v>0.5212082438115139</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="B429">
+        <v>0.5503478070098543</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="B430">
+        <v>0.5758279935840327</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="B431">
+        <v>0.5972469657706484</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="B432">
+        <v>0.6142669335832448</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="B433">
+        <v>0.6266194819621814</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="B434">
+        <v>0.6341098038404677</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="B435">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="B436">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="B437">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="B438">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="B439">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="B440">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="B441">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="B442">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="B443">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="B444">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="B445">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="B446">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="B447">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="B448">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="B449">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="B450">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="B451">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="B452">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="B453">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="B454">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="B455">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="B456">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="B457">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="B458">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="B459">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="B460">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="B461">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="B462">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="B463">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="B464">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="B465">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="B466">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="B467">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="B468">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="B469">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="B470">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="B471">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="B472">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="B473">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="B474">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="B475">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="B476">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="B477">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="B478">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="B479">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="B480">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="B481">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="B482">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="B483">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="B484">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="B485">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="B486">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="B487">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="B488">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="B489">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="B490">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="B491">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="B492">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="B493">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="B494">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="B495">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="B496">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="B497">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="B498">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="B499">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="B500">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="B501">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2">
+      <c r="B502">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2">
+      <c r="B503">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
+      <c r="B504">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
+      <c r="B505">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
+      <c r="B506">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="B507">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="B508">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
+      <c r="B509">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
+      <c r="B510">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="B511">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2">
+      <c r="B512">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="B513">
+        <v>0.0025099685271137416</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="B514">
+        <v>0.010000290405399933</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="B515">
+        <v>0.0223528387843365</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="B516">
+        <v>0.039372806596932985</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="B517">
+        <v>0.06079177878354874</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="B518">
+        <v>0.08627196535772706</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="B519">
+        <v>0.11541152855606746</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="B520">
+        <v>0.14775092005980095</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="B521">
+        <v>0.1827801283462974</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2">
+      <c r="B522">
+        <v>0.2199467218754441</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2">
+      <c r="B523">
+        <v>0.25866456126503956</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
+      <c r="B524">
+        <v>0.29832304305899393</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="B525">
+        <v>0.33829672930858756</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
+      <c r="B526">
+        <v>0.3779552111025418</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="B527">
+        <v>0.4166730504921373</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="B528">
+        <v>0.4538396440212839</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="B529">
+        <v>0.48886885230778043</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
+      <c r="B530">
+        <v>0.5212082438115139</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="B531">
+        <v>0.5503478070098543</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="B532">
+        <v>0.5758279935840327</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="B533">
+        <v>0.5972469657706484</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="B534">
+        <v>0.6142669335832448</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="B535">
+        <v>0.6266194819621814</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="B536">
+        <v>0.6341098038404676</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="B537">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="B538">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="B539">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="B540">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="B541">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="B542">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="B543">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="B544">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="B545">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2">
+      <c r="B546">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2">
+      <c r="B547">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2">
+      <c r="B548">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2">
+      <c r="B549">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2">
+      <c r="B550">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="B551">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2">
+      <c r="B552">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2">
+      <c r="B553">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2">
+      <c r="B554">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="B555">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="B556">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="B557">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2">
+      <c r="B558">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2">
+      <c r="B559">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2">
+      <c r="B560">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2">
+      <c r="B561">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="B562">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="B563">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2">
+      <c r="B564">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="B565">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2">
+      <c r="B566">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2">
+      <c r="B567">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2">
+      <c r="B568">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2">
+      <c r="B569">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2">
+      <c r="B570">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2">
+      <c r="B571">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2">
+      <c r="B572">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2">
+      <c r="B573">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="B574">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2">
+      <c r="B575">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="B576">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2">
+      <c r="B577">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="B578">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2">
+      <c r="B579">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2">
+      <c r="B580">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2">
+      <c r="B581">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2">
+      <c r="B582">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2">
+      <c r="B583">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2">
+      <c r="B584">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2">
+      <c r="B585">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2">
+      <c r="B586">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2">
+      <c r="B587">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2">
+      <c r="B588">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2">
+      <c r="B589">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2">
+      <c r="B590">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2">
+      <c r="B591">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2">
+      <c r="B592">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2">
+      <c r="B593">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2">
+      <c r="B594">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2">
+      <c r="B595">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2">
+      <c r="B596">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2">
+      <c r="B597">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2">
+      <c r="B598">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2">
+      <c r="B599">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2">
+      <c r="B600">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2">
+      <c r="B601">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2">
+      <c r="B602">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2">
+      <c r="B603">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2">
+      <c r="B604">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2">
+      <c r="B605">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2">
+      <c r="B606">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2">
+      <c r="B607">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2">
+      <c r="B608">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2">
+      <c r="B609">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2">
+      <c r="B610">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2">
+      <c r="B611">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2">
+      <c r="B612">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2">
+      <c r="B613">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2">
+      <c r="B614">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2">
+      <c r="B615">
+        <v>0.002509968527113777</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2">
+      <c r="B616">
+        <v>0.010000290405399933</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2">
+      <c r="B617">
+        <v>0.0223528387843365</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2">
+      <c r="B618">
+        <v>0.039372806596932985</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2">
+      <c r="B619">
+        <v>0.06079177878354874</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2">
+      <c r="B620">
+        <v>0.08627196535772706</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2">
+      <c r="B621">
+        <v>0.11541152855606752</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2">
+      <c r="B622">
+        <v>0.14775092005980095</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2">
+      <c r="B623">
+        <v>0.1827801283462974</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2">
+      <c r="B624">
+        <v>0.2199467218754441</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2">
+      <c r="B625">
+        <v>0.25866456126503967</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2">
+      <c r="B626">
+        <v>0.2983230430589938</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2">
+      <c r="B627">
+        <v>0.33829672930858756</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2">
+      <c r="B628">
+        <v>0.3779552111025418</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2">
+      <c r="B629">
+        <v>0.4166730504921373</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2">
+      <c r="B630">
+        <v>0.453839644021284</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2">
+      <c r="B631">
+        <v>0.4888688523077806</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2">
+      <c r="B632">
+        <v>0.5212082438115139</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2">
+      <c r="B633">
+        <v>0.5503478070098543</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2">
+      <c r="B634">
+        <v>0.5758279935840327</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2">
+      <c r="B635">
+        <v>0.5972469657706484</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2">
+      <c r="B636">
+        <v>0.6142669335832448</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2">
+      <c r="B637">
+        <v>0.6266194819621814</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2">
+      <c r="B638">
+        <v>0.6341098038404676</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2">
+      <c r="B639">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2">
+      <c r="B640">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2">
+      <c r="B641">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2">
+      <c r="B642">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2">
+      <c r="B643">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2">
+      <c r="B644">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2">
+      <c r="B645">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2">
+      <c r="B646">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2">
+      <c r="B647">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2">
+      <c r="B648">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2">
+      <c r="B649">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2">
+      <c r="B650">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2">
+      <c r="B651">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2">
+      <c r="B652">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2">
+      <c r="B653">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2">
+      <c r="B654">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2">
+      <c r="B655">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2">
+      <c r="B656">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2">
+      <c r="B657">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2">
+      <c r="B658">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2">
+      <c r="B659">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2">
+      <c r="B660">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2">
+      <c r="B661">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2">
+      <c r="B662">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2">
+      <c r="B663">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2">
+      <c r="B664">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2">
+      <c r="B665">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2">
+      <c r="B666">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2">
+      <c r="B667">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2">
+      <c r="B668">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2">
+      <c r="B669">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2">
+      <c r="B670">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2">
+      <c r="B671">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2">
+      <c r="B672">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2">
+      <c r="B673">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2">
+      <c r="B674">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2">
+      <c r="B675">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2">
+      <c r="B676">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2">
+      <c r="B677">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2">
+      <c r="B678">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2">
+      <c r="B679">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2">
+      <c r="B680">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2">
+      <c r="B681">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2">
+      <c r="B682">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2">
+      <c r="B683">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2">
+      <c r="B684">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2">
+      <c r="B685">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2">
+      <c r="B686">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2">
+      <c r="B687">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2">
+      <c r="B688">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2">
+      <c r="B689">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2">
+      <c r="B690">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2">
+      <c r="B691">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2">
+      <c r="B692">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2">
+      <c r="B693">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2">
+      <c r="B694">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2">
+      <c r="B695">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2">
+      <c r="B696">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2">
+      <c r="B697">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2">
+      <c r="B698">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2">
+      <c r="B699">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2">
+      <c r="B700">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2">
+      <c r="B701">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2">
+      <c r="B702">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2">
+      <c r="B703">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2">
+      <c r="B704">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2">
+      <c r="B705">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2">
+      <c r="B706">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2">
+      <c r="B707">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2">
+      <c r="B708">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2">
+      <c r="B709">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2">
+      <c r="B710">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2">
+      <c r="B711">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2">
+      <c r="B712">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2">
+      <c r="B713">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2">
+      <c r="B714">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2">
+      <c r="B715">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2">
+      <c r="B716">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2">
+      <c r="B717">
+        <v>0.0025099685271137416</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2">
+      <c r="B718">
+        <v>0.010000290405399898</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2">
+      <c r="B719">
+        <v>0.0223528387843365</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2">
+      <c r="B720">
+        <v>0.039372806596932985</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2">
+      <c r="B721">
+        <v>0.06079177878354874</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2">
+      <c r="B722">
+        <v>0.08627196535772706</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2">
+      <c r="B723">
+        <v>0.11541152855606752</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2">
+      <c r="B724">
+        <v>0.1477509200598009</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2">
+      <c r="B725">
+        <v>0.1827801283462974</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2">
+      <c r="B726">
+        <v>0.2199467218754441</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2">
+      <c r="B727">
+        <v>0.2586645612650395</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2">
+      <c r="B728">
+        <v>0.2983230430589938</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2">
+      <c r="B729">
+        <v>0.33829672930858756</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2">
+      <c r="B730">
+        <v>0.3779552111025417</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2">
+      <c r="B731">
+        <v>0.4166730504921373</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2">
+      <c r="B732">
+        <v>0.453839644021284</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2">
+      <c r="B733">
+        <v>0.48886885230778043</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2">
+      <c r="B734">
+        <v>0.5212082438115139</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2">
+      <c r="B735">
+        <v>0.5503478070098543</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2">
+      <c r="B736">
+        <v>0.5758279935840327</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2">
+      <c r="B737">
+        <v>0.5972469657706484</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2">
+      <c r="B738">
+        <v>0.6142669335832448</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2">
+      <c r="B739">
+        <v>0.6266194819621814</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2">
+      <c r="B740">
+        <v>0.6341098038404676</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2">
+      <c r="B741">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2">
+      <c r="B742">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2">
+      <c r="B743">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2">
+      <c r="B744">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2">
+      <c r="B745">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2">
+      <c r="B746">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2">
+      <c r="B747">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2">
+      <c r="B748">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2">
+      <c r="B749">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2">
+      <c r="B750">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2">
+      <c r="B751">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2">
+      <c r="B752">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2">
+      <c r="B753">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2">
+      <c r="B754">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2">
+      <c r="B755">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2">
+      <c r="B756">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2">
+      <c r="B757">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2">
+      <c r="B758">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2">
+      <c r="B759">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2">
+      <c r="B760">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2">
+      <c r="B761">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2">
+      <c r="B762">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2">
+      <c r="B763">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2">
+      <c r="B764">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2">
+      <c r="B765">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2">
+      <c r="B766">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2">
+      <c r="B767">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2">
+      <c r="B768">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2">
+      <c r="B769">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2">
+      <c r="B770">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2">
+      <c r="B771">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2">
+      <c r="B772">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2">
+      <c r="B773">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2">
+      <c r="B774">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2">
+      <c r="B775">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2">
+      <c r="B776">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2">
+      <c r="B777">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2">
+      <c r="B778">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2">
+      <c r="B779">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2">
+      <c r="B780">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2">
+      <c r="B781">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2">
+      <c r="B782">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2">
+      <c r="B783">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2">
+      <c r="B784">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2">
+      <c r="B785">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2">
+      <c r="B786">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2">
+      <c r="B787">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2">
+      <c r="B788">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2">
+      <c r="B789">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2">
+      <c r="B790">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2">
+      <c r="B791">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2">
+      <c r="B792">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2">
+      <c r="B793">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2">
+      <c r="B794">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2">
+      <c r="B795">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2">
+      <c r="B796">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2">
+      <c r="B797">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2">
+      <c r="B798">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2">
+      <c r="B799">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2">
+      <c r="B800">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2">
+      <c r="B801">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2">
+      <c r="B802">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2">
+      <c r="B803">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2">
+      <c r="B804">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2">
+      <c r="B805">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2">
+      <c r="B806">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2">
+      <c r="B807">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2">
+      <c r="B808">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2">
+      <c r="B809">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2">
+      <c r="B810">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2">
+      <c r="B811">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2">
+      <c r="B812">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2">
+      <c r="B813">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2">
+      <c r="B814">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2">
+      <c r="B815">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2">
+      <c r="B816">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2">
+      <c r="B817">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2">
+      <c r="B818">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2">
+      <c r="B819">
+        <v>0.0025099685271137416</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2">
+      <c r="B820">
+        <v>0.010000290405399933</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2">
+      <c r="B821">
+        <v>0.0223528387843365</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2">
+      <c r="B822">
+        <v>0.039372806596932985</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2">
+      <c r="B823">
+        <v>0.06079177878354874</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2">
+      <c r="B824">
+        <v>0.08627196535772709</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2">
+      <c r="B825">
+        <v>0.11541152855606746</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2">
+      <c r="B826">
+        <v>0.14775092005980095</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2">
+      <c r="B827">
+        <v>0.1827801283462974</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2">
+      <c r="B828">
+        <v>0.2199467218754441</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2">
+      <c r="B829">
+        <v>0.25866456126503956</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2">
+      <c r="B830">
+        <v>0.29832304305899393</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2">
+      <c r="B831">
+        <v>0.33829672930858756</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2">
+      <c r="B832">
+        <v>0.3779552111025418</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2">
+      <c r="B833">
+        <v>0.4166730504921373</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2">
+      <c r="B834">
+        <v>0.4538396440212839</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2">
+      <c r="B835">
+        <v>0.48886885230778043</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2">
+      <c r="B836">
+        <v>0.5212082438115139</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2">
+      <c r="B837">
+        <v>0.5503478070098543</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2">
+      <c r="B838">
+        <v>0.5758279935840327</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2">
+      <c r="B839">
+        <v>0.5972469657706484</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2">
+      <c r="B840">
+        <v>0.6142669335832448</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2">
+      <c r="B841">
+        <v>0.6266194819621814</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2">
+      <c r="B842">
+        <v>0.6341098038404676</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2">
+      <c r="B843">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2">
+      <c r="B844">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2">
+      <c r="B845">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2">
+      <c r="B846">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2">
+      <c r="B847">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2">
+      <c r="B848">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2">
+      <c r="B849">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2">
+      <c r="B850">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2">
+      <c r="B851">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2">
+      <c r="B852">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2">
+      <c r="B853">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2">
+      <c r="B854">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2">
+      <c r="B855">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2">
+      <c r="B856">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2">
+      <c r="B857">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2">
+      <c r="B858">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2">
+      <c r="B859">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2">
+      <c r="B860">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2">
+      <c r="B861">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2">
+      <c r="B862">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2">
+      <c r="B863">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2">
+      <c r="B864">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2">
+      <c r="B865">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2">
+      <c r="B866">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2">
+      <c r="B867">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2">
+      <c r="B868">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2">
+      <c r="B869">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2">
+      <c r="B870">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2">
+      <c r="B871">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2">
+      <c r="B872">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2">
+      <c r="B873">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2">
+      <c r="B874">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2">
+      <c r="B875">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2">
+      <c r="B876">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2">
+      <c r="B877">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2">
+      <c r="B878">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2">
+      <c r="B879">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2">
+      <c r="B880">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2">
+      <c r="B881">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2">
+      <c r="B882">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2">
+      <c r="B883">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2">
+      <c r="B884">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2">
+      <c r="B885">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2">
+      <c r="B886">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2">
+      <c r="B887">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2">
+      <c r="B888">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2">
+      <c r="B889">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2">
+      <c r="B890">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2">
+      <c r="B891">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2">
+      <c r="B892">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2">
+      <c r="B893">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2">
+      <c r="B894">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2">
+      <c r="B895">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2">
+      <c r="B896">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2">
+      <c r="B897">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2">
+      <c r="B898">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2">
+      <c r="B899">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2">
+      <c r="B900">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2">
+      <c r="B901">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2">
+      <c r="B902">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2">
+      <c r="B903">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2">
+      <c r="B904">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2">
+      <c r="B905">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2">
+      <c r="B906">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2">
+      <c r="B907">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2">
+      <c r="B908">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2">
+      <c r="B909">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2">
+      <c r="B910">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2">
+      <c r="B911">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2">
+      <c r="B912">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2">
+      <c r="B913">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2">
+      <c r="B914">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2">
+      <c r="B915">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2">
+      <c r="B916">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2">
+      <c r="B917">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2">
+      <c r="B918">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2">
+      <c r="B919">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2">
+      <c r="B920">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2">
+      <c r="B921">
+        <v>0.002509968527113777</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2">
+      <c r="B922">
+        <v>0.010000290405399933</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2">
+      <c r="B923">
+        <v>0.0223528387843365</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2">
+      <c r="B924">
+        <v>0.039372806596932985</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2">
+      <c r="B925">
+        <v>0.06079177878354877</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2">
+      <c r="B926">
+        <v>0.08627196535772706</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2">
+      <c r="B927">
+        <v>0.11541152855606752</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2">
+      <c r="B928">
+        <v>0.14775092005980095</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2">
+      <c r="B929">
+        <v>0.1827801283462974</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2">
+      <c r="B930">
+        <v>0.2199467218754441</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2">
+      <c r="B931">
+        <v>0.25866456126503967</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2">
+      <c r="B932">
+        <v>0.2983230430589938</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2">
+      <c r="B933">
+        <v>0.33829672930858756</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2">
+      <c r="B934">
+        <v>0.3779552111025418</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2">
+      <c r="B935">
+        <v>0.4166730504921373</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2">
+      <c r="B936">
+        <v>0.453839644021284</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2">
+      <c r="B937">
+        <v>0.4888688523077806</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2">
+      <c r="B938">
+        <v>0.5212082438115139</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2">
+      <c r="B939">
+        <v>0.5503478070098544</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2">
+      <c r="B940">
+        <v>0.5758279935840327</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2">
+      <c r="B941">
+        <v>0.5972469657706484</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2">
+      <c r="B942">
+        <v>0.6142669335832448</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2">
+      <c r="B943">
+        <v>0.6266194819621814</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2">
+      <c r="B944">
+        <v>0.6341098038404677</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2">
+      <c r="B945">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2">
+      <c r="B946">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2">
+      <c r="B947">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2">
+      <c r="B948">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2">
+      <c r="B949">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2">
+      <c r="B950">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2">
+      <c r="B951">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2">
+      <c r="B952">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2">
+      <c r="B953">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2">
+      <c r="B954">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2">
+      <c r="B955">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2">
+      <c r="B956">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2">
+      <c r="B957">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2">
+      <c r="B958">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2">
+      <c r="B959">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2">
+      <c r="B960">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2">
+      <c r="B961">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2">
+      <c r="B962">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2">
+      <c r="B963">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2">
+      <c r="B964">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2">
+      <c r="B965">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2">
+      <c r="B966">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2">
+      <c r="B967">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2">
+      <c r="B968">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2">
+      <c r="B969">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2">
+      <c r="B970">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2">
+      <c r="B971">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2">
+      <c r="B972">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2">
+      <c r="B973">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2">
+      <c r="B974">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2">
+      <c r="B975">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2">
+      <c r="B976">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2">
+      <c r="B977">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2">
+      <c r="B978">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2">
+      <c r="B979">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2">
+      <c r="B980">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2">
+      <c r="B981">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2">
+      <c r="B982">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2">
+      <c r="B983">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2">
+      <c r="B984">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2">
+      <c r="B985">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2">
+      <c r="B986">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2">
+      <c r="B987">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2">
+      <c r="B988">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2">
+      <c r="B989">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2">
+      <c r="B990">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2">
+      <c r="B991">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2">
+      <c r="B992">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2">
+      <c r="B993">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2">
+      <c r="B994">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2">
+      <c r="B995">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2">
+      <c r="B996">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2">
+      <c r="B997">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2">
+      <c r="B998">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2">
+      <c r="B999">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2">
+      <c r="B1000">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2">
+      <c r="B1001">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2">
+      <c r="B1002">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2">
+      <c r="B1003">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2">
+      <c r="B1004">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2">
+      <c r="B1005">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2">
+      <c r="B1006">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2">
+      <c r="B1007">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2">
+      <c r="B1008">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2">
+      <c r="B1009">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:2">
+      <c r="B1010">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2">
+      <c r="B1011">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2">
+      <c r="B1012">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:2">
+      <c r="B1013">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:2">
+      <c r="B1014">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:2">
+      <c r="B1015">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:2">
+      <c r="B1016">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:2">
+      <c r="B1017">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:2">
+      <c r="B1018">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:2">
+      <c r="B1019">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:2">
+      <c r="B1020">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:2">
+      <c r="B1021">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:2">
+      <c r="B1022">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:2">
+      <c r="B1023">
+        <v>0.0025099685271137416</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:2">
+      <c r="B1024">
+        <v>0.010000290405399898</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:2">
+      <c r="B1025">
+        <v>0.0223528387843365</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:2">
+      <c r="B1026">
+        <v>0.039372806596932985</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:2">
+      <c r="B1027">
+        <v>0.06079177878354874</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:2">
+      <c r="B1028">
+        <v>0.08627196535772706</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:2">
+      <c r="B1029">
+        <v>0.11541152855606752</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:2">
+      <c r="B1030">
+        <v>0.1477509200598009</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:2">
+      <c r="B1031">
+        <v>0.1827801283462974</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:2">
+      <c r="B1032">
+        <v>0.2199467218754441</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:2">
+      <c r="B1033">
+        <v>0.2586645612650395</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:2">
+      <c r="B1034">
+        <v>0.2983230430589938</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:2">
+      <c r="B1035">
+        <v>0.33829672930858756</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:2">
+      <c r="B1036">
+        <v>0.3779552111025417</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:2">
+      <c r="B1037">
+        <v>0.4166730504921373</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:2">
+      <c r="B1038">
+        <v>0.453839644021284</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:2">
+      <c r="B1039">
+        <v>0.4888688523077806</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:2">
+      <c r="B1040">
+        <v>0.5212082438115139</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:2">
+      <c r="B1041">
+        <v>0.5503478070098543</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:2">
+      <c r="B1042">
+        <v>0.5758279935840327</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:2">
+      <c r="B1043">
+        <v>0.5972469657706484</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:2">
+      <c r="B1044">
+        <v>0.6142669335832448</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:2">
+      <c r="B1045">
+        <v>0.6266194819621814</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:2">
+      <c r="B1046">
+        <v>0.6341098038404677</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:2">
+      <c r="B1047">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:2">
+      <c r="B1048">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:2">
+      <c r="B1049">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:2">
+      <c r="B1050">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:2">
+      <c r="B1051">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:2">
+      <c r="B1052">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:2">
+      <c r="B1053">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:2">
+      <c r="B1054">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:2">
+      <c r="B1055">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:2">
+      <c r="B1056">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:2">
+      <c r="B1057">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:2">
+      <c r="B1058">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:2">
+      <c r="B1059">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:2">
+      <c r="B1060">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:2">
+      <c r="B1061">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:2">
+      <c r="B1062">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:2">
+      <c r="B1063">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:2">
+      <c r="B1064">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:2">
+      <c r="B1065">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:2">
+      <c r="B1066">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:2">
+      <c r="B1067">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:2">
+      <c r="B1068">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:2">
+      <c r="B1069">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:2">
+      <c r="B1070">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:2">
+      <c r="B1071">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:2">
+      <c r="B1072">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:2">
+      <c r="B1073">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:2">
+      <c r="B1074">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:2">
+      <c r="B1075">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:2">
+      <c r="B1076">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:2">
+      <c r="B1077">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:2">
+      <c r="B1078">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:2">
+      <c r="B1079">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:2">
+      <c r="B1080">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:2">
+      <c r="B1081">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:2">
+      <c r="B1082">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:2">
+      <c r="B1083">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:2">
+      <c r="B1084">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:2">
+      <c r="B1085">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:2">
+      <c r="B1086">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:2">
+      <c r="B1087">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:2">
+      <c r="B1088">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:2">
+      <c r="B1089">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:2">
+      <c r="B1090">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:2">
+      <c r="B1091">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:2">
+      <c r="B1092">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:2">
+      <c r="B1093">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:2">
+      <c r="B1094">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:2">
+      <c r="B1095">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:2">
+      <c r="B1096">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:2">
+      <c r="B1097">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:2">
+      <c r="B1098">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:2">
+      <c r="B1099">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:2">
+      <c r="B1100">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:2">
+      <c r="B1101">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:2">
+      <c r="B1102">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:2">
+      <c r="B1103">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:2">
+      <c r="B1104">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:2">
+      <c r="B1105">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:2">
+      <c r="B1106">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:2">
+      <c r="B1107">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:2">
+      <c r="B1108">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:2">
+      <c r="B1109">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:2">
+      <c r="B1110">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:2">
+      <c r="B1111">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:2">
+      <c r="B1112">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:2">
+      <c r="B1113">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:2">
+      <c r="B1114">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:2">
+      <c r="B1115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:2">
+      <c r="B1116">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:2">
+      <c r="B1117">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:2">
+      <c r="B1118">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:2">
+      <c r="B1119">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:2">
+      <c r="B1120">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:2">
+      <c r="B1121">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:2">
+      <c r="B1122">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:2">
+      <c r="B1123">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:2">
+      <c r="B1124">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:2">
+      <c r="B1125">
+        <v>0.0025099685271137416</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:2">
+      <c r="B1126">
+        <v>0.010000290405399933</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:2">
+      <c r="B1127">
+        <v>0.022352838784336533</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:2">
+      <c r="B1128">
+        <v>0.039372806596932985</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:2">
+      <c r="B1129">
+        <v>0.06079177878354874</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:2">
+      <c r="B1130">
+        <v>0.08627196535772709</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:2">
+      <c r="B1131">
+        <v>0.11541152855606746</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:2">
+      <c r="B1132">
+        <v>0.14775092005980095</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:2">
+      <c r="B1133">
+        <v>0.1827801283462974</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:2">
+      <c r="B1134">
+        <v>0.2199467218754441</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:2">
+      <c r="B1135">
+        <v>0.25866456126503956</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:2">
+      <c r="B1136">
+        <v>0.29832304305899393</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:2">
+      <c r="B1137">
+        <v>0.33829672930858756</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:2">
+      <c r="B1138">
+        <v>0.3779552111025418</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:2">
+      <c r="B1139">
+        <v>0.4166730504921373</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:2">
+      <c r="B1140">
+        <v>0.453839644021284</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:2">
+      <c r="B1141">
+        <v>0.4888688523077806</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:2">
+      <c r="B1142">
+        <v>0.5212082438115139</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:2">
+      <c r="B1143">
+        <v>0.5503478070098543</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:2">
+      <c r="B1144">
+        <v>0.5758279935840327</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:2">
+      <c r="B1145">
+        <v>0.5972469657706484</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:2">
+      <c r="B1146">
+        <v>0.6142669335832448</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:2">
+      <c r="B1147">
+        <v>0.6266194819621814</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:2">
+      <c r="B1148">
+        <v>0.6341098038404676</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:2">
+      <c r="B1149">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:2">
+      <c r="B1150">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:2">
+      <c r="B1151">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:2">
+      <c r="B1152">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:2">
+      <c r="B1153">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:2">
+      <c r="B1154">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:2">
+      <c r="B1155">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:2">
+      <c r="B1156">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:2">
+      <c r="B1157">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:2">
+      <c r="B1158">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:2">
+      <c r="B1159">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:2">
+      <c r="B1160">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:2">
+      <c r="B1161">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:2">
+      <c r="B1162">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:2">
+      <c r="B1163">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:2">
+      <c r="B1164">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:2">
+      <c r="B1165">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:2">
+      <c r="B1166">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:2">
+      <c r="B1167">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:2">
+      <c r="B1168">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:2">
+      <c r="B1169">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:2">
+      <c r="B1170">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:2">
+      <c r="B1171">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:2">
+      <c r="B1172">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:2">
+      <c r="B1173">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:2">
+      <c r="B1174">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:2">
+      <c r="B1175">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:2">
+      <c r="B1176">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:2">
+      <c r="B1177">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:2">
+      <c r="B1178">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:2">
+      <c r="B1179">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:2">
+      <c r="B1180">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:2">
+      <c r="B1181">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:2">
+      <c r="B1182">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:2">
+      <c r="B1183">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:2">
+      <c r="B1184">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:2">
+      <c r="B1185">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:2">
+      <c r="B1186">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:2">
+      <c r="B1187">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:2">
+      <c r="B1188">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:2">
+      <c r="B1189">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:2">
+      <c r="B1190">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:2">
+      <c r="B1191">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:2">
+      <c r="B1192">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:2">
+      <c r="B1193">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:2">
+      <c r="B1194">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:2">
+      <c r="B1195">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:2">
+      <c r="B1196">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:2">
+      <c r="B1197">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:2">
+      <c r="B1198">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:2">
+      <c r="B1199">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:2">
+      <c r="B1200">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:2">
+      <c r="B1201">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:2">
+      <c r="B1202">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:2">
+      <c r="B1203">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:2">
+      <c r="B1204">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:2">
+      <c r="B1205">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:2">
+      <c r="B1206">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:2">
+      <c r="B1207">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:2">
+      <c r="B1208">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:2">
+      <c r="B1209">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:2">
+      <c r="B1210">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:2">
+      <c r="B1211">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:2">
+      <c r="B1212">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:2">
+      <c r="B1213">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:2">
+      <c r="B1214">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:2">
+      <c r="B1215">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:2">
+      <c r="B1216">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:2">
+      <c r="B1217">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:2">
+      <c r="B1218">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:2">
+      <c r="B1219">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:2">
+      <c r="B1220">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:2">
+      <c r="B1221">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:2">
+      <c r="B1222">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:2">
+      <c r="B1223">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:2">
+      <c r="B1224">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:2">
+      <c r="B1225">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:2">
+      <c r="B1226">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:2">
+      <c r="B1227">
+        <v>0.002509968527113777</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:2">
+      <c r="B1228">
+        <v>0.010000290405399933</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:2">
+      <c r="B1229">
+        <v>0.0223528387843365</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:2">
+      <c r="B1230">
+        <v>0.039372806596932985</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:2">
+      <c r="B1231">
+        <v>0.06079177878354877</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:2">
+      <c r="B1232">
+        <v>0.08627196535772706</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:2">
+      <c r="B1233">
+        <v>0.11541152855606752</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:2">
+      <c r="B1234">
+        <v>0.14775092005980095</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:2">
+      <c r="B1235">
+        <v>0.1827801283462974</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:2">
+      <c r="B1236">
+        <v>0.2199467218754441</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:2">
+      <c r="B1237">
+        <v>0.25866456126503967</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:2">
+      <c r="B1238">
+        <v>0.2983230430589938</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:2">
+      <c r="B1239">
+        <v>0.33829672930858756</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:2">
+      <c r="B1240">
+        <v>0.3779552111025418</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:2">
+      <c r="B1241">
+        <v>0.4166730504921373</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:2">
+      <c r="B1242">
+        <v>0.453839644021284</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:2">
+      <c r="B1243">
+        <v>0.48886885230778043</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:2">
+      <c r="B1244">
+        <v>0.5212082438115139</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:2">
+      <c r="B1245">
+        <v>0.5503478070098543</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:2">
+      <c r="B1246">
+        <v>0.5758279935840327</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:2">
+      <c r="B1247">
+        <v>0.5972469657706484</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:2">
+      <c r="B1248">
+        <v>0.6142669335832448</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:2">
+      <c r="B1249">
+        <v>0.6266194819621814</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:2">
+      <c r="B1250">
+        <v>0.6341098038404676</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:2">
+      <c r="B1251">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:2">
+      <c r="B1252">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:2">
+      <c r="B1253">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:2">
+      <c r="B1254">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:2">
+      <c r="B1255">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:2">
+      <c r="B1256">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:2">
+      <c r="B1257">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:2">
+      <c r="B1258">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:2">
+      <c r="B1259">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:2">
+      <c r="B1260">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:2">
+      <c r="B1261">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:2">
+      <c r="B1262">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:2">
+      <c r="B1263">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:2">
+      <c r="B1264">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:2">
+      <c r="B1265">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:2">
+      <c r="B1266">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:2">
+      <c r="B1267">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:2">
+      <c r="B1268">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:2">
+      <c r="B1269">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:2">
+      <c r="B1270">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:2">
+      <c r="B1271">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:2">
+      <c r="B1272">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:2">
+      <c r="B1273">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:2">
+      <c r="B1274">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:2">
+      <c r="B1275">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:2">
+      <c r="B1276">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:2">
+      <c r="B1277">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:2">
+      <c r="B1278">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:2">
+      <c r="B1279">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:2">
+      <c r="B1280">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:2">
+      <c r="B1281">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:2">
+      <c r="B1282">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:2">
+      <c r="B1283">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:2">
+      <c r="B1284">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:2">
+      <c r="B1285">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:2">
+      <c r="B1286">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:2">
+      <c r="B1287">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:2">
+      <c r="B1288">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:2">
+      <c r="B1289">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:2">
+      <c r="B1290">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:2">
+      <c r="B1291">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:2">
+      <c r="B1292">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:2">
+      <c r="B1293">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:2">
+      <c r="B1294">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:2">
+      <c r="B1295">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:2">
+      <c r="B1296">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:2">
+      <c r="B1297">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:2">
+      <c r="B1298">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:2">
+      <c r="B1299">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:2">
+      <c r="B1300">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:2">
+      <c r="B1301">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:2">
+      <c r="B1302">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:2">
+      <c r="B1303">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:2">
+      <c r="B1304">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:2">
+      <c r="B1305">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:2">
+      <c r="B1306">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:2">
+      <c r="B1307">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:2">
+      <c r="B1308">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:2">
+      <c r="B1309">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:2">
+      <c r="B1310">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:2">
+      <c r="B1311">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:2">
+      <c r="B1312">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:2">
+      <c r="B1313">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:2">
+      <c r="B1314">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:2">
+      <c r="B1315">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:2">
+      <c r="B1316">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:2">
+      <c r="B1317">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:2">
+      <c r="B1318">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:2">
+      <c r="B1319">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:2">
+      <c r="B1320">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:2">
+      <c r="B1321">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:2">
+      <c r="B1322">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:2">
+      <c r="B1323">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:2">
+      <c r="B1324">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:2">
+      <c r="B1325">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:2">
+      <c r="B1326">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:2">
+      <c r="B1327">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:2">
+      <c r="B1328">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:2">
+      <c r="B1329">
+        <v>0.002509968527113777</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:2">
+      <c r="B1330">
+        <v>0.010000290405399898</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:2">
+      <c r="B1331">
+        <v>0.0223528387843365</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:2">
+      <c r="B1332">
+        <v>0.039372806596932985</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:2">
+      <c r="B1333">
+        <v>0.06079177878354874</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:2">
+      <c r="B1334">
+        <v>0.08627196535772706</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:2">
+      <c r="B1335">
+        <v>0.11541152855606752</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:2">
+      <c r="B1336">
+        <v>0.1477509200598009</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:2">
+      <c r="B1337">
+        <v>0.1827801283462974</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:2">
+      <c r="B1338">
+        <v>0.2199467218754441</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:2">
+      <c r="B1339">
+        <v>0.2586645612650395</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:2">
+      <c r="B1340">
+        <v>0.2983230430589938</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:2">
+      <c r="B1341">
+        <v>0.33829672930858756</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:2">
+      <c r="B1342">
+        <v>0.3779552111025418</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:2">
+      <c r="B1343">
+        <v>0.4166730504921373</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:2">
+      <c r="B1344">
+        <v>0.4538396440212839</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:2">
+      <c r="B1345">
+        <v>0.48886885230778043</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:2">
+      <c r="B1346">
+        <v>0.5212082438115139</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:2">
+      <c r="B1347">
+        <v>0.5503478070098543</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:2">
+      <c r="B1348">
+        <v>0.5758279935840327</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:2">
+      <c r="B1349">
+        <v>0.5972469657706484</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:2">
+      <c r="B1350">
+        <v>0.6142669335832448</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:2">
+      <c r="B1351">
+        <v>0.6266194819621814</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:2">
+      <c r="B1352">
+        <v>0.6341098038404676</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:2">
+      <c r="B1353">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:2">
+      <c r="B1354">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:2">
+      <c r="B1355">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:2">
+      <c r="B1356">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:2">
+      <c r="B1357">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:2">
+      <c r="B1358">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:2">
+      <c r="B1359">
+        <v>0.6366197723675814</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>